--- a/NEW HR/LACIBAL, RYAN.xlsx
+++ b/NEW HR/LACIBAL, RYAN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>12/23,26-29/2023</t>
+  </si>
+  <si>
+    <t>5/23-25/2023</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>06/5-6/2023</t>
   </si>
 </sst>
 </file>
@@ -3304,10 +3313,10 @@
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A63" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A72" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,7 +3384,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
+      <c r="F4" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3466,7 +3477,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4950,15 +4961,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>44958</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4966,15 +4981,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>44986</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4982,15 +5001,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45017</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4998,24 +5021,38 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="A84" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="39"/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H84" s="39">
+        <v>3</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
+      <c r="A85" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
@@ -5024,10 +5061,14 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="39"/>
+      <c r="H85" s="39">
+        <v>2</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
@@ -5924,10 +5965,10 @@
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4155" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,7 +6046,7 @@
       </c>
       <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
+        <v>DA</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
@@ -6385,7 +6426,7 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>

--- a/NEW HR/LACIBAL, RYAN.xlsx
+++ b/NEW HR/LACIBAL, RYAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,6 +259,12 @@
   </si>
   <si>
     <t>06/5-6/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>6/13-15/2023</t>
   </si>
 </sst>
 </file>
@@ -646,6 +652,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -658,20 +673,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,7 +1374,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1417,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1481,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1541,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1607,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1670,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1768,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1827,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1892,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1935,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2010,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2196,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2262,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2320,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2386,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2442,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2511,7 +2517,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2560,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2626,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2682,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2774,7 +2780,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2837,7 +2843,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3346,14 +3352,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3364,14 +3370,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3384,16 +3390,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3419,18 +3425,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5920,17 +5926,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5968,7 +5974,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4155" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,14 +6005,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6020,17 +6026,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6044,17 +6050,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>DA</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6080,18 +6086,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6138,7 +6144,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.685</v>
+        <v>122.685</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6426,7 +6432,9 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -6442,10 +6450,16 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>3</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -6455,7 +6469,9 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>

--- a/NEW HR/LACIBAL, RYAN.xlsx
+++ b/NEW HR/LACIBAL, RYAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08BB4AB-E196-4FE1-B06D-FC9B7599B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -266,11 +267,14 @@
   <si>
     <t>6/13-15/2023</t>
   </si>
+  <si>
+    <t>7/3-4/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -652,15 +656,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,11 +668,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,7 +1378,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1421,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1485,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1545,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1611,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1674,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1772,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1831,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1896,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1939,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2014,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2200,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2266,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2324,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2390,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2446,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2521,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2564,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2630,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2686,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2780,7 +2784,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2847,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2896,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2909,25 +2913,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2939,25 +2943,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2969,13 +2973,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2984,14 +2988,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3295,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3305,7 +3309,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3313,34 +3317,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3352,16 +3356,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3370,16 +3374,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3390,18 +3394,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3409,7 +3413,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3422,24 +3426,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +3478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3483,7 +3487,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3493,12 +3497,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>63.25</v>
+        <v>62.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3520,7 +3524,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3564,7 +3568,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3584,7 +3588,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3604,7 +3608,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3624,7 +3628,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3644,7 +3648,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3664,7 +3668,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3684,7 +3688,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3704,7 +3708,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3724,7 +3728,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3744,7 +3748,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3768,7 +3772,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3786,7 +3790,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3806,7 +3810,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3826,7 +3830,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3846,7 +3850,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3866,7 +3870,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3886,7 +3890,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3906,7 +3910,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3926,7 +3930,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3946,7 +3950,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3966,7 +3970,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3986,7 +3990,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4006,7 +4010,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4030,7 +4034,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>59</v>
@@ -4052,7 +4056,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>44</v>
       </c>
@@ -4070,7 +4074,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>55</v>
@@ -4118,7 +4122,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -4138,7 +4142,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -4158,7 +4162,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -4178,7 +4182,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -4198,7 +4202,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -4218,7 +4222,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -4242,7 +4246,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4264,7 +4268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -4286,7 +4290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -4306,7 +4310,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4358,7 +4362,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -4378,7 +4382,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -4402,7 +4406,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>45</v>
       </c>
@@ -4420,7 +4424,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -4440,7 +4444,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -4460,7 +4464,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -4480,7 +4484,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -4500,7 +4504,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -4520,7 +4524,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -4540,7 +4544,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -4580,7 +4584,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -4600,7 +4604,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -4620,7 +4624,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -4640,7 +4644,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44531</v>
       </c>
@@ -4664,7 +4668,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>46</v>
       </c>
@@ -4682,7 +4686,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -4702,7 +4706,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -4722,7 +4726,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -4742,7 +4746,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -4762,7 +4766,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -4782,7 +4786,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -4802,7 +4806,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -4822,7 +4826,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4842,7 +4846,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4862,7 +4866,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4882,7 +4886,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44866</v>
       </c>
@@ -4902,7 +4906,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44896</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4946,9 +4950,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4966,9 +4970,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4986,9 +4990,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5006,9 +5010,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5026,9 +5030,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>58</v>
@@ -5052,20 +5056,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39">
         <v>2</v>
@@ -5076,9 +5082,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45138</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -5087,13 +5097,19 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>2</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="K86" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45169</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5108,8 +5124,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45199</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5124,8 +5142,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45230</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5140,8 +5160,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45260</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5156,8 +5178,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45291</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5172,8 +5196,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45322</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5188,8 +5214,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45351</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5204,8 +5232,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45382</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5220,7 +5250,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5236,7 +5266,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5252,7 +5282,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5268,7 +5298,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5284,7 +5314,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5300,7 +5330,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5316,7 +5346,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5332,7 +5362,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5348,7 +5378,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5364,7 +5394,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5380,7 +5410,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5396,7 +5426,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5412,7 +5442,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5428,7 +5458,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5444,7 +5474,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5460,7 +5490,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5476,7 +5506,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5492,7 +5522,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5508,7 +5538,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5524,7 +5554,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5540,7 +5570,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5556,7 +5586,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5572,7 +5602,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5588,7 +5618,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5604,7 +5634,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5620,7 +5650,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5636,7 +5666,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5652,7 +5682,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5668,7 +5698,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5684,7 +5714,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5700,7 +5730,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5716,7 +5746,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5732,7 +5762,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5748,7 +5778,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5764,7 +5794,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5780,7 +5810,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5796,7 +5826,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5812,7 +5842,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5828,7 +5858,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5844,7 +5874,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5860,7 +5890,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5876,7 +5906,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5892,7 +5922,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5908,7 +5938,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5926,23 +5956,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5965,34 +5995,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="4152" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6005,16 +6035,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6026,19 +6056,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6050,19 +6080,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>DA</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6070,7 +6100,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6083,24 +6113,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6135,7 +6165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6159,7 +6189,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6181,7 +6211,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6205,7 +6235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43313</v>
       </c>
@@ -6229,7 +6259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43374</v>
       </c>
@@ -6253,7 +6283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6271,7 +6301,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43466</v>
       </c>
@@ -6295,7 +6325,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43497</v>
       </c>
@@ -6319,7 +6349,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43586</v>
       </c>
@@ -6343,7 +6373,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43617</v>
       </c>
@@ -6367,7 +6397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43647</v>
       </c>
@@ -6391,7 +6421,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -6413,7 +6443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
@@ -6431,7 +6461,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>47</v>
       </c>
@@ -6449,7 +6479,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>45078</v>
       </c>
@@ -6473,7 +6503,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6489,7 +6519,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6505,7 +6535,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6521,7 +6551,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6537,7 +6567,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6553,7 +6583,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6569,7 +6599,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6585,7 +6615,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6601,7 +6631,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6617,7 +6647,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6633,7 +6663,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6649,7 +6679,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6665,7 +6695,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6681,7 +6711,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6697,7 +6727,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6713,7 +6743,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6729,7 +6759,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6745,7 +6775,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6761,7 +6791,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6777,7 +6807,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6793,7 +6823,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6809,7 +6839,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6825,7 +6855,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6841,7 +6871,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6857,7 +6887,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6873,7 +6903,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6889,7 +6919,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6905,7 +6935,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6921,7 +6951,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6937,7 +6967,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6953,7 +6983,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6969,7 +6999,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6985,7 +7015,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7001,7 +7031,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7017,7 +7047,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7033,7 +7063,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7049,7 +7079,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7065,7 +7095,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7081,7 +7111,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7097,7 +7127,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7113,7 +7143,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7129,7 +7159,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7145,7 +7175,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7161,7 +7191,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7177,7 +7207,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7193,7 +7223,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7209,7 +7239,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7225,7 +7255,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7241,7 +7271,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7257,7 +7287,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7273,7 +7303,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7289,7 +7319,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7305,7 +7335,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7321,7 +7351,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7337,7 +7367,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7353,7 +7383,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7369,7 +7399,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7385,7 +7415,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7401,7 +7431,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7417,7 +7447,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7433,7 +7463,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7449,7 +7479,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7465,7 +7495,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7481,7 +7511,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7497,7 +7527,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7513,7 +7543,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7529,7 +7559,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7545,7 +7575,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7561,7 +7591,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7577,7 +7607,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7593,7 +7623,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7609,7 +7639,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7625,7 +7655,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7641,7 +7671,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7657,7 +7687,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7673,7 +7703,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7689,7 +7719,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7705,7 +7735,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7721,7 +7751,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7737,7 +7767,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7753,7 +7783,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7769,7 +7799,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7785,7 +7815,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7801,7 +7831,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7817,7 +7847,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7833,7 +7863,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7849,7 +7879,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7865,7 +7895,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7881,7 +7911,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7897,7 +7927,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7913,7 +7943,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7929,7 +7959,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7945,7 +7975,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7961,7 +7991,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7977,7 +8007,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7993,7 +8023,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8009,7 +8039,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8025,7 +8055,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8041,7 +8071,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8057,7 +8087,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="15"/>
       <c r="C123" s="42"/>
@@ -8088,10 +8118,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8114,7 +8144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8122,21 +8152,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8149,7 +8179,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8178,7 +8208,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>125.685</v>
       </c>
@@ -8202,17 +8232,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8233,7 +8263,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8260,7 +8290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8286,7 +8316,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8312,7 +8342,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8338,7 +8368,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8364,7 +8394,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8390,7 +8420,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8416,7 +8446,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8442,7 +8472,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8462,7 +8492,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8482,7 +8512,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8502,7 +8532,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8523,7 +8553,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8544,7 +8574,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8565,7 +8595,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8586,7 +8616,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8607,7 +8637,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8628,7 +8658,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8649,7 +8679,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8670,7 +8700,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8691,7 +8721,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8712,7 +8742,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8733,7 +8763,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8754,7 +8784,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8775,7 +8805,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8796,7 +8826,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8817,7 +8847,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8838,7 +8868,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8859,7 +8889,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8880,7 +8910,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8901,7 +8931,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8922,7 +8952,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8931,7 +8961,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8940,7 +8970,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8949,7 +8979,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8958,7 +8988,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8967,7 +8997,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8976,7 +9006,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8985,7 +9015,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8994,7 +9024,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9003,7 +9033,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9012,7 +9042,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9021,7 +9051,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9030,7 +9060,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9039,7 +9069,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9048,7 +9078,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9057,7 +9087,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9066,7 +9096,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9075,7 +9105,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9084,7 +9114,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9093,7 +9123,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9102,7 +9132,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9111,7 +9141,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9120,7 +9150,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9129,7 +9159,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9138,7 +9168,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9147,7 +9177,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9156,7 +9186,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9165,7 +9195,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9174,7 +9204,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9183,7 +9213,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/LACIBAL, RYAN.xlsx
+++ b/NEW HR/LACIBAL, RYAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08BB4AB-E196-4FE1-B06D-FC9B7599B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -270,11 +269,14 @@
   <si>
     <t>7/3-4/2023</t>
   </si>
+  <si>
+    <t>9/26,27/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1378,7 +1380,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1423,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1487,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1545,7 +1547,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1613,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1676,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1774,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1833,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1898,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1941,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2016,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2202,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2268,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2326,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2392,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2446,7 +2448,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2523,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2564,7 +2566,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2632,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2688,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2786,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2847,7 +2849,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2898,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2913,25 +2915,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K138" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2943,25 +2945,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2973,13 +2975,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2988,14 +2990,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3299,7 +3301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3309,7 +3311,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3317,34 +3319,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
+      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3367,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3383,7 +3385,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3405,7 +3407,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3413,7 +3415,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3426,7 +3428,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -3443,7 +3445,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3487,7 +3489,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3497,12 +3499,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>62.5</v>
+        <v>63.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3524,7 +3526,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3548,7 +3550,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3568,7 +3570,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3588,7 +3590,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3608,7 +3610,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3628,7 +3630,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3648,7 +3650,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3668,7 +3670,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3688,7 +3690,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3708,7 +3710,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3728,7 +3730,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3748,7 +3750,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3772,7 +3774,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3790,7 +3792,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3810,7 +3812,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3830,7 +3832,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3850,7 +3852,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3870,7 +3872,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3890,7 +3892,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3910,7 +3912,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3930,7 +3932,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3950,7 +3952,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3970,7 +3972,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3990,7 +3992,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4010,7 +4012,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4034,7 +4036,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>59</v>
@@ -4056,7 +4058,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>44</v>
       </c>
@@ -4074,7 +4076,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4100,7 +4102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>55</v>
@@ -4122,7 +4124,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -4142,7 +4144,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -4162,7 +4164,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -4182,7 +4184,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -4202,7 +4204,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4268,7 +4270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -4290,7 +4292,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -4310,7 +4312,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -4382,7 +4384,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -4406,7 +4408,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>45</v>
       </c>
@@ -4424,7 +4426,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -4444,7 +4446,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -4464,7 +4466,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -4484,7 +4486,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -4504,7 +4506,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -4524,7 +4526,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -4544,7 +4546,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -4564,7 +4566,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -4584,7 +4586,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -4604,7 +4606,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -4624,7 +4626,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -4644,7 +4646,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44531</v>
       </c>
@@ -4668,7 +4670,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>46</v>
       </c>
@@ -4686,7 +4688,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -4706,7 +4708,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -4726,7 +4728,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -4746,7 +4748,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -4766,7 +4768,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -4786,7 +4788,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -4806,7 +4808,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -4826,7 +4828,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4846,7 +4848,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4866,7 +4868,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4886,7 +4888,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44866</v>
       </c>
@@ -4906,7 +4908,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44896</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4950,7 +4952,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44957</v>
       </c>
@@ -4970,7 +4972,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44985</v>
       </c>
@@ -4990,7 +4992,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45016</v>
       </c>
@@ -5010,7 +5012,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45046</v>
       </c>
@@ -5030,7 +5032,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45077</v>
       </c>
@@ -5056,7 +5058,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45107</v>
       </c>
@@ -5082,20 +5084,22 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45138</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39">
         <v>2</v>
@@ -5106,47 +5110,59 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45169</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45199</v>
       </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="39"/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="39">
+        <v>1</v>
+      </c>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="50">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45230</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
@@ -5155,12 +5171,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="39"/>
+      <c r="H89" s="39">
+        <v>2</v>
+      </c>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45260</v>
       </c>
@@ -5178,7 +5198,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45291</v>
       </c>
@@ -5196,7 +5216,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45322</v>
       </c>
@@ -5214,7 +5234,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45351</v>
       </c>
@@ -5232,7 +5252,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45382</v>
       </c>
@@ -5250,7 +5270,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5266,7 +5286,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5282,7 +5302,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5298,7 +5318,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5314,7 +5334,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5330,7 +5350,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5346,7 +5366,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5362,7 +5382,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5378,7 +5398,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5394,7 +5414,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5410,7 +5430,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5426,7 +5446,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5442,7 +5462,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5458,7 +5478,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5474,7 +5494,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5490,7 +5510,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5506,7 +5526,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5522,7 +5542,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5538,7 +5558,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5554,7 +5574,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5570,7 +5590,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5586,7 +5606,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5602,7 +5622,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5618,7 +5638,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5634,7 +5654,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5650,7 +5670,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5666,7 +5686,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5682,7 +5702,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5698,7 +5718,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5714,7 +5734,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5730,7 +5750,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5746,7 +5766,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5762,7 +5782,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5778,7 +5798,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5794,7 +5814,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5810,7 +5830,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5826,7 +5846,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5842,7 +5862,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5858,7 +5878,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5874,7 +5894,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5890,7 +5910,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5906,7 +5926,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5922,7 +5942,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5938,7 +5958,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5969,10 +5989,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5995,34 +6015,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4152" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="4155" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6044,7 +6064,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6068,7 +6088,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6092,7 +6112,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6100,7 +6120,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6113,7 +6133,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -6130,7 +6150,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6165,7 +6185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6189,7 +6209,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6211,7 +6231,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6235,7 +6255,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43313</v>
       </c>
@@ -6259,7 +6279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43374</v>
       </c>
@@ -6283,7 +6303,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6301,7 +6321,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43466</v>
       </c>
@@ -6325,7 +6345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43497</v>
       </c>
@@ -6349,7 +6369,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43586</v>
       </c>
@@ -6373,7 +6393,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43617</v>
       </c>
@@ -6397,7 +6417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43647</v>
       </c>
@@ -6421,7 +6441,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -6443,7 +6463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
@@ -6461,7 +6481,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>47</v>
       </c>
@@ -6479,7 +6499,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>45078</v>
       </c>
@@ -6503,7 +6523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6519,7 +6539,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6535,7 +6555,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6551,7 +6571,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6567,7 +6587,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6583,7 +6603,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6599,7 +6619,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6615,7 +6635,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6631,7 +6651,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6647,7 +6667,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6663,7 +6683,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6679,7 +6699,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6695,7 +6715,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6711,7 +6731,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6727,7 +6747,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6743,7 +6763,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6759,7 +6779,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6775,7 +6795,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6791,7 +6811,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6807,7 +6827,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6823,7 +6843,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6839,7 +6859,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6855,7 +6875,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6871,7 +6891,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6887,7 +6907,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6903,7 +6923,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6919,7 +6939,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6935,7 +6955,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6951,7 +6971,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6967,7 +6987,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6983,7 +7003,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6999,7 +7019,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7015,7 +7035,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7031,7 +7051,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7047,7 +7067,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7063,7 +7083,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7079,7 +7099,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7095,7 +7115,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7111,7 +7131,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7127,7 +7147,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7143,7 +7163,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7159,7 +7179,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7175,7 +7195,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7191,7 +7211,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7207,7 +7227,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7223,7 +7243,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7239,7 +7259,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7255,7 +7275,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7271,7 +7291,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7287,7 +7307,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7303,7 +7323,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7319,7 +7339,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7335,7 +7355,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7351,7 +7371,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7367,7 +7387,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7383,7 +7403,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7399,7 +7419,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7415,7 +7435,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7431,7 +7451,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7447,7 +7467,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7463,7 +7483,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7479,7 +7499,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7495,7 +7515,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7511,7 +7531,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7527,7 +7547,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7543,7 +7563,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7559,7 +7579,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7575,7 +7595,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7591,7 +7611,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7607,7 +7627,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7623,7 +7643,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7639,7 +7659,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7655,7 +7675,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7671,7 +7691,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7687,7 +7707,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7703,7 +7723,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7719,7 +7739,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7735,7 +7755,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7751,7 +7771,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7767,7 +7787,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7783,7 +7803,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7799,7 +7819,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7815,7 +7835,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7831,7 +7851,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7847,7 +7867,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7863,7 +7883,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7879,7 +7899,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7895,7 +7915,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7911,7 +7931,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7927,7 +7947,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7943,7 +7963,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7959,7 +7979,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7975,7 +7995,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7991,7 +8011,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8007,7 +8027,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8023,7 +8043,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8039,7 +8059,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8055,7 +8075,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8071,7 +8091,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8087,7 +8107,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="15"/>
       <c r="C123" s="42"/>
@@ -8118,10 +8138,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8144,7 +8164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8152,21 +8172,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8179,7 +8199,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8208,7 +8228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>125.685</v>
       </c>
@@ -8232,17 +8252,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8263,7 +8283,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8290,7 +8310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8316,7 +8336,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8342,7 +8362,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8368,7 +8388,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8394,7 +8414,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8420,7 +8440,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8446,7 +8466,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8472,7 +8492,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8492,7 +8512,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8512,7 +8532,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8532,7 +8552,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8553,7 +8573,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8574,7 +8594,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8595,7 +8615,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8616,7 +8636,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8637,7 +8657,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8658,7 +8678,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8679,7 +8699,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8700,7 +8720,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8721,7 +8741,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8742,7 +8762,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8763,7 +8783,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8784,7 +8804,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8805,7 +8825,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8826,7 +8846,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8847,7 +8867,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8868,7 +8888,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8889,7 +8909,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8910,7 +8930,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8931,7 +8951,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8952,7 +8972,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8961,7 +8981,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8970,7 +8990,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8979,7 +8999,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8988,7 +9008,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8997,7 +9017,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9006,7 +9026,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9015,7 +9035,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9024,7 +9044,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9033,7 +9053,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9042,7 +9062,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9051,7 +9071,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9060,7 +9080,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9069,7 +9089,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9078,7 +9098,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9087,7 +9107,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9096,7 +9116,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9105,7 +9125,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9114,7 +9134,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9123,7 +9143,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9132,7 +9152,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9141,7 +9161,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9150,7 +9170,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9159,7 +9179,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9168,7 +9188,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9177,7 +9197,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9186,7 +9206,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9195,7 +9215,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9204,7 +9224,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9213,7 +9233,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/LACIBAL, RYAN.xlsx
+++ b/NEW HR/LACIBAL, RYAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E384B780-9253-48D2-96C1-E965DECE65EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -291,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -673,6 +674,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -685,20 +695,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,7 +1396,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1439,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1503,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1563,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1629,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1692,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1789,7 +1790,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1849,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1914,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1957,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2032,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2218,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2284,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2342,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2408,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2464,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2539,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2582,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2648,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2704,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2802,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +2865,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2914,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2930,25 +2931,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K140" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K140" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2960,25 +2961,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K123" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2990,13 +2991,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3005,14 +3006,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3316,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3326,7 +3327,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3334,34 +3335,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K140"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A80" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K92" sqref="K92"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3373,16 +3374,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3391,16 +3392,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3411,18 +3412,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3430,7 +3431,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3443,24 +3444,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3504,7 +3505,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3514,12 +3515,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>62.5</v>
+        <v>65.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3541,7 +3542,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3585,7 +3586,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3605,7 +3606,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3625,7 +3626,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3645,7 +3646,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3685,7 +3686,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3705,7 +3706,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3725,7 +3726,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3745,7 +3746,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3765,7 +3766,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3789,7 +3790,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3807,7 +3808,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3827,7 +3828,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3847,7 +3848,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3867,7 +3868,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3907,7 +3908,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3927,7 +3928,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3947,7 +3948,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3967,7 +3968,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3987,7 +3988,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4007,7 +4008,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4027,7 +4028,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4051,7 +4052,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>59</v>
@@ -4073,7 +4074,7 @@
         <v>43812</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>44</v>
       </c>
@@ -4091,7 +4092,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43831</v>
       </c>
@@ -4117,7 +4118,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>55</v>
@@ -4139,7 +4140,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43862</v>
       </c>
@@ -4159,7 +4160,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43891</v>
       </c>
@@ -4179,7 +4180,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43922</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43952</v>
       </c>
@@ -4219,7 +4220,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43983</v>
       </c>
@@ -4239,7 +4240,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44013</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4285,7 +4286,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -4307,7 +4308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -4327,7 +4328,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -4399,7 +4400,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -4423,7 +4424,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>45</v>
       </c>
@@ -4441,7 +4442,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -4461,7 +4462,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -4481,7 +4482,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -4501,7 +4502,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -4521,7 +4522,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -4541,7 +4542,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -4561,7 +4562,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -4581,7 +4582,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -4601,7 +4602,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -4621,7 +4622,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -4641,7 +4642,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -4661,7 +4662,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44531</v>
       </c>
@@ -4685,7 +4686,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>46</v>
       </c>
@@ -4703,7 +4704,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -4723,7 +4724,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -4743,7 +4744,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -4763,7 +4764,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -4783,7 +4784,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -4803,7 +4804,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44713</v>
       </c>
@@ -4823,7 +4824,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44743</v>
       </c>
@@ -4843,7 +4844,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44774</v>
       </c>
@@ -4863,7 +4864,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44805</v>
       </c>
@@ -4883,7 +4884,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44835</v>
       </c>
@@ -4903,7 +4904,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44866</v>
       </c>
@@ -4923,7 +4924,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44896</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>47</v>
       </c>
@@ -4967,7 +4968,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44957</v>
       </c>
@@ -4987,7 +4988,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44985</v>
       </c>
@@ -5007,7 +5008,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45016</v>
       </c>
@@ -5027,7 +5028,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45046</v>
       </c>
@@ -5047,7 +5048,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45077</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45107</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45138</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45169</v>
       </c>
@@ -5145,7 +5146,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45199</v>
       </c>
@@ -5171,7 +5172,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45230</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>55</v>
@@ -5219,40 +5220,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45260</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45291</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39">
         <v>5</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
@@ -5261,7 +5266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="48" t="s">
         <v>82</v>
       </c>
@@ -5279,25 +5284,33 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45322</v>
       </c>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="B94" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="50">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45351</v>
       </c>
@@ -5315,7 +5328,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45382</v>
       </c>
@@ -5333,7 +5346,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5349,7 +5362,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5365,7 +5378,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5381,7 +5394,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5397,7 +5410,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5413,7 +5426,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5429,7 +5442,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5445,7 +5458,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5461,7 +5474,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5477,7 +5490,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5493,7 +5506,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5509,7 +5522,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5525,7 +5538,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5541,7 +5554,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5557,7 +5570,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5573,7 +5586,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5589,7 +5602,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5605,7 +5618,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5621,7 +5634,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5637,7 +5650,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5653,7 +5666,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5669,7 +5682,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5685,7 +5698,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5701,7 +5714,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5717,7 +5730,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5733,7 +5746,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5749,7 +5762,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5765,7 +5778,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5781,7 +5794,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5797,7 +5810,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5813,7 +5826,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5829,7 +5842,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5845,7 +5858,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5861,7 +5874,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5877,7 +5890,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5893,7 +5906,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5909,7 +5922,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5925,7 +5938,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5941,7 +5954,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5957,7 +5970,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5973,7 +5986,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5989,7 +6002,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -6005,7 +6018,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6021,7 +6034,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="15"/>
       <c r="C140" s="42"/>
@@ -6039,23 +6052,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6078,34 +6091,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A16" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4152" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6118,16 +6131,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6139,19 +6152,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6163,19 +6176,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>DA</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6183,7 +6196,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6196,24 +6209,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6248,7 +6261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6272,7 +6285,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6294,7 +6307,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6318,7 +6331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43313</v>
       </c>
@@ -6342,7 +6355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43374</v>
       </c>
@@ -6366,7 +6379,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -6384,7 +6397,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43466</v>
       </c>
@@ -6408,7 +6421,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43497</v>
       </c>
@@ -6432,7 +6445,7 @@
         <v>43509</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43586</v>
       </c>
@@ -6456,7 +6469,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43617</v>
       </c>
@@ -6480,7 +6493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43647</v>
       </c>
@@ -6504,7 +6517,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -6526,7 +6539,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>44</v>
       </c>
@@ -6544,7 +6557,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>47</v>
       </c>
@@ -6562,7 +6575,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>45078</v>
       </c>
@@ -6586,7 +6599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>45200</v>
       </c>
@@ -6610,7 +6623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>45243</v>
       </c>
@@ -6634,7 +6647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6650,7 +6663,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6666,7 +6679,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6682,7 +6695,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6698,7 +6711,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6714,7 +6727,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6730,7 +6743,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6746,7 +6759,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6762,7 +6775,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6778,7 +6791,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6794,7 +6807,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6810,7 +6823,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6826,7 +6839,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6842,7 +6855,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6858,7 +6871,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6874,7 +6887,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6890,7 +6903,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6906,7 +6919,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6922,7 +6935,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6938,7 +6951,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6954,7 +6967,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6970,7 +6983,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6986,7 +6999,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -7002,7 +7015,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -7018,7 +7031,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -7034,7 +7047,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -7050,7 +7063,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7066,7 +7079,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7082,7 +7095,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7098,7 +7111,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7114,7 +7127,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7130,7 +7143,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7146,7 +7159,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7162,7 +7175,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7178,7 +7191,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7194,7 +7207,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7210,7 +7223,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7226,7 +7239,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7242,7 +7255,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7258,7 +7271,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7274,7 +7287,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7290,7 +7303,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7306,7 +7319,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7322,7 +7335,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7338,7 +7351,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7354,7 +7367,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7370,7 +7383,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7386,7 +7399,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7402,7 +7415,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7418,7 +7431,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7434,7 +7447,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7450,7 +7463,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7466,7 +7479,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7482,7 +7495,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7498,7 +7511,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7514,7 +7527,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7530,7 +7543,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7546,7 +7559,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7562,7 +7575,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7578,7 +7591,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7594,7 +7607,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7610,7 +7623,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7626,7 +7639,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7642,7 +7655,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7658,7 +7671,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7674,7 +7687,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7690,7 +7703,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7706,7 +7719,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7722,7 +7735,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7738,7 +7751,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7754,7 +7767,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7770,7 +7783,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7786,7 +7799,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7802,7 +7815,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7818,7 +7831,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7834,7 +7847,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7850,7 +7863,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7866,7 +7879,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7882,7 +7895,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7898,7 +7911,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7914,7 +7927,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7930,7 +7943,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7946,7 +7959,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7962,7 +7975,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7978,7 +7991,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7994,7 +8007,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8010,7 +8023,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8026,7 +8039,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8042,7 +8055,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8058,7 +8071,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8074,7 +8087,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8090,7 +8103,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8106,7 +8119,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8122,7 +8135,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8138,7 +8151,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8154,7 +8167,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8170,7 +8183,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8186,7 +8199,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="15"/>
       <c r="C123" s="42"/>
@@ -8217,10 +8230,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8243,7 +8256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8251,21 +8264,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8278,7 +8291,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8307,7 +8320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>125.685</v>
       </c>
@@ -8331,17 +8344,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8362,7 +8375,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8389,7 +8402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8415,7 +8428,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8441,7 +8454,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8467,7 +8480,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8493,7 +8506,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8519,7 +8532,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8545,7 +8558,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8571,7 +8584,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8591,7 +8604,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8611,7 +8624,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8631,7 +8644,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8652,7 +8665,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8673,7 +8686,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8694,7 +8707,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8715,7 +8728,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8736,7 +8749,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8757,7 +8770,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8778,7 +8791,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8799,7 +8812,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8820,7 +8833,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8841,7 +8854,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8862,7 +8875,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8883,7 +8896,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8904,7 +8917,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8925,7 +8938,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8946,7 +8959,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8967,7 +8980,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8988,7 +9001,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9009,7 +9022,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9030,7 +9043,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9051,7 +9064,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9060,7 +9073,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9069,7 +9082,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9078,7 +9091,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9087,7 +9100,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9096,7 +9109,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9105,7 +9118,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9114,7 +9127,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9123,7 +9136,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9132,7 +9145,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9141,7 +9154,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9150,7 +9163,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9159,7 +9172,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9168,7 +9181,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9177,7 +9190,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9186,7 +9199,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9195,7 +9208,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9204,7 +9217,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9213,7 +9226,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9222,7 +9235,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9231,7 +9244,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9240,7 +9253,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9249,7 +9262,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9258,7 +9271,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9267,7 +9280,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9276,7 +9289,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9285,7 +9298,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9294,7 +9307,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9303,7 +9316,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9312,7 +9325,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
